--- a/data/scheduling_DNN/predict/0.9/result5.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result5.xlsx
@@ -570,10 +570,10 @@
         <v>1.153443098068237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5250410437583923</v>
       </c>
       <c r="W2" t="n">
-        <v>0.249919056892395</v>
+        <v>0.3948891460895538</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8832719326019287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8732039332389832</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05276913940906525</v>
+        <v>0.0001013646106002852</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.120343923568726</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.522019624710083</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4937569797039032</v>
+        <v>0.3579919636249542</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9491100311279297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4009868204593658</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1310629397630692</v>
+        <v>0.3004390895366669</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9237239360809326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4023513197898865</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3274207413196564</v>
+        <v>0.2718293964862823</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9247751235961914</v>
       </c>
       <c r="V7" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8658064007759094</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05086933076381683</v>
+        <v>0.003477310296148062</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9463999271392822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.3990994095802307</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1779986321926117</v>
+        <v>0.299537867307663</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8976900577545166</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8780382871627808</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09414456784725189</v>
+        <v>0.0003861920849885792</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.899055004119873</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8695493340492249</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1552639007568359</v>
+        <v>0.0008705845684744418</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9092819690704346</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.3991012871265411</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3119581937789917</v>
+        <v>0.2602843642234802</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9274308681488037</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4009263813495636</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07433860749006271</v>
+        <v>0.2772070169448853</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9530508518218994</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8704997897148132</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2014142423868179</v>
+        <v>0.006814677733927965</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9429469108581543</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.527649998664856</v>
       </c>
       <c r="W14" t="n">
-        <v>0.191066563129425</v>
+        <v>0.1724715232849121</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495279788970947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5041404962539673</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2103579044342041</v>
+        <v>0.1983700096607208</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.994163990020752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8688425421714783</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03679101169109344</v>
+        <v>0.01570546440780163</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8756430149078369</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.892179548740387</v>
       </c>
       <c r="W17" t="n">
-        <v>0.005259662866592407</v>
+        <v>0.0002734569425228983</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962810039520264</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8693532347679138</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004435539245605469</v>
+        <v>0.0007251047645695508</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9168720245361328</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5198764801025391</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2969416677951813</v>
+        <v>0.1576054692268372</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.872960090637207</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.518444299697876</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1693438589572906</v>
+        <v>0.1256814450025558</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.884026050567627</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.875394880771637</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0948682427406311</v>
+        <v>7.449708937201649e-05</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5440189838409424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3991645872592926</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001621814561076462</v>
+        <v>0.02098279632627964</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5947408676147461</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8751426935195923</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1450380235910416</v>
+        <v>0.07862518727779388</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5421128273010254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8672512769699097</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001604554010555148</v>
+        <v>0.1057150140404701</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5303318500518799</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8921162486076355</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03223686292767525</v>
+        <v>0.1308879554271698</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5387139320373535</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5226657390594482</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06970056146383286</v>
+        <v>0.0002575445105321705</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5212831497192383</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5181795954704285</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0009951479732990265</v>
+        <v>9.632049113861285e-06</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.529249906539917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5324180722236633</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01552940625697374</v>
+        <v>1.003727356874151e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5367741584777832</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8698617219924927</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02492254041135311</v>
+        <v>0.1109473258256912</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5257649421691895</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8753349184989929</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01168663986027241</v>
+        <v>0.1221991702914238</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5164339542388916</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8728067278862</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0001417307939846069</v>
+        <v>0.12700155377388</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.6232740879058838</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.5321261882781982</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03204011172056198</v>
+        <v>0.008307939395308495</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5133988857269287</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8698614835739136</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003921501338481903</v>
+        <v>0.12706558406353</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5330741405487061</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5205779075622559</v>
       </c>
       <c r="W34" t="n">
-        <v>5.668794256052934e-05</v>
+        <v>0.0001561558456160128</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5175430774688721</v>
       </c>
       <c r="V35" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5161490440368652</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0007094481843523681</v>
+        <v>1.943329152709339e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.517164945602417</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4024387001991272</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02768373861908913</v>
+        <v>0.01316211093217134</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5153119564056396</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.52101069688797</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0160057358443737</v>
+        <v>3.247564382036217e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.515822172164917</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5224168300628662</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01820842549204826</v>
+        <v>4.348951188148931e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5689020156860352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.4020031094551086</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01154330745339394</v>
+        <v>0.02785524539649487</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5207960605621338</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8750116229057312</v>
       </c>
       <c r="W40" t="n">
-        <v>1.417692237737356e-05</v>
+        <v>0.1254686713218689</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.3999907076358795</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08109504729509354</v>
+        <v>0.01357185840606689</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3967301845550537</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5220755934715271</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03454816341400146</v>
+        <v>0.0157114714384079</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4158449172973633</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.5275686383247375</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002050233306363225</v>
+        <v>0.01248218957334757</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3887760639190674</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5457746982574463</v>
       </c>
       <c r="W44" t="n">
-        <v>0.171476736664772</v>
+        <v>0.02464857138693333</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3917410373687744</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5277699828147888</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01796304620802402</v>
+        <v>0.01850387454032898</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879590034484863</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.872829794883728</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01034955494105816</v>
+        <v>0.2350996881723404</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3983170986175537</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.4003996551036835</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002621015999466181</v>
+        <v>4.337041445978684e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3900899887084961</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5259556174278259</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0001127261275541969</v>
+        <v>0.01845946907997131</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4043679237365723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5199812650680542</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0144978417083621</v>
+        <v>0.01336644496768713</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.388634204864502</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8645336031913757</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01035432144999504</v>
+        <v>0.2264802306890488</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8693022131919861</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01794921234250069</v>
+        <v>0.2285855412483215</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3972728252410889</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8748239874839783</v>
       </c>
       <c r="W52" t="n">
-        <v>0.09657830744981766</v>
+        <v>0.2280551195144653</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3955469131469727</v>
       </c>
       <c r="V53" t="n">
-        <v>0.417652815580368</v>
+        <v>0.523068368434906</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0004886709502898157</v>
+        <v>0.01626172102987766</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3941268920898438</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5176877975463867</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004534019622951746</v>
+        <v>0.01526729762554169</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4272170066833496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8684313297271729</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05077220872044563</v>
+        <v>0.1946700811386108</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3860900402069092</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.3997042775154114</v>
       </c>
       <c r="W56" t="n">
-        <v>0.005690836813300848</v>
+        <v>0.000185347453225404</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4071700572967529</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8692418336868286</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0001075817417586222</v>
+        <v>0.2135103195905685</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3896307945251465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8719727396965027</v>
       </c>
       <c r="W58" t="n">
-        <v>0.03720521554350853</v>
+        <v>0.2326537519693375</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3943150043487549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.4021010398864746</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03306156024336815</v>
+        <v>6.06223511567805e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.7000949382781982</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8874696493148804</v>
       </c>
       <c r="W60" t="n">
-        <v>0.07976227253675461</v>
+        <v>0.03510928153991699</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.432642936706543</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4009356498718262</v>
       </c>
       <c r="W61" t="n">
-        <v>0.2947979867458344</v>
+        <v>0.001005352009087801</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.121154069900513</v>
       </c>
       <c r="V62" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5057780146598816</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3979393243789673</v>
+        <v>0.3786876797676086</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8743460178375244</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5316001772880554</v>
       </c>
       <c r="W63" t="n">
-        <v>0.00545358145609498</v>
+        <v>0.1174747124314308</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8658051490783691</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.4009295701980591</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1618612408638</v>
+        <v>0.2161093056201935</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.869359016418457</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8706387877464294</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1433644145727158</v>
+        <v>1.637814648347558e-06</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9087719917297363</v>
       </c>
       <c r="V66" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5203367471694946</v>
       </c>
       <c r="W66" t="n">
-        <v>0.01147806085646152</v>
+        <v>0.1508819460868835</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8689398765563965</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5179973840713501</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1433578431606293</v>
+        <v>0.1231606304645538</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9179859161376953</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.4009877741336823</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1126215308904648</v>
+        <v>0.2672871053218842</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8693699836730957</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8732365965843201</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2681950926780701</v>
+        <v>1.495069500379032e-05</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8722019195556641</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5224214792251587</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1667780429124832</v>
+        <v>0.122346356511116</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.868934154510498</v>
       </c>
       <c r="V71" t="n">
-        <v>0.652911365032196</v>
+        <v>0.3991062641143799</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04666584730148315</v>
+        <v>0.2207382470369339</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8890061378479004</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.4020082652568817</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2222754955291748</v>
+        <v>0.2371669262647629</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.870305061340332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.4002689719200134</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02779451571404934</v>
+        <v>0.2209339290857315</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8672559261322021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4010094404220581</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04574203118681908</v>
+        <v>0.2173857837915421</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8700699806213379</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5224930644035339</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1440797299146652</v>
+        <v>0.1208097115159035</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654501438140869</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5089012384414673</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1634914129972458</v>
+        <v>0.1271271258592606</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8937699794769287</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5263615250587463</v>
       </c>
       <c r="W77" t="n">
-        <v>0.003089443314820528</v>
+        <v>0.1349889785051346</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8702869415283203</v>
       </c>
       <c r="V78" t="n">
-        <v>0.800457239151001</v>
+        <v>0.4010260105133057</v>
       </c>
       <c r="W78" t="n">
-        <v>0.004876187536865473</v>
+        <v>0.2202058285474777</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8677799701690674</v>
       </c>
       <c r="V79" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5222193002700806</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1424379050731659</v>
+        <v>0.1194121763110161</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9472420215606689</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.40029177069664</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2087469846010208</v>
+        <v>0.2991545498371124</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9327538013458252</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8657559156417847</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05453143641352654</v>
+        <v>0.004488716833293438</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5638480186462402</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5226960182189941</v>
       </c>
       <c r="W82" t="n">
-        <v>0.007713984698057175</v>
+        <v>0.001693487167358398</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5213959217071533</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5278715491294861</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01743130944669247</v>
+        <v>4.193375207250938e-05</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5184769630432129</v>
       </c>
       <c r="V84" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5208719372749329</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02131874114274979</v>
+        <v>5.73590159547166e-06</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5217580795288086</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.88723224401474</v>
       </c>
       <c r="W85" t="n">
-        <v>9.223222150467336e-06</v>
+        <v>0.1335713714361191</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5157489776611328</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.4009346067905426</v>
       </c>
       <c r="W86" t="n">
-        <v>0.10329370200634</v>
+        <v>0.01318234018981457</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5259380340576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8717156052589417</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02780689857900143</v>
+        <v>0.1195621266961098</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5170691013336182</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5324618220329285</v>
       </c>
       <c r="W88" t="n">
-        <v>0.000143363286042586</v>
+        <v>0.0002369358553551137</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5175609588623047</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.863883376121521</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1001998409628868</v>
+        <v>0.1199392154812813</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.521183967590332</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.3991200029850006</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01759382896125317</v>
+        <v>0.0148996114730835</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5180251598358154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.3998303115367889</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02761294506490231</v>
+        <v>0.01397002208977938</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5433800220489502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.4019324779510498</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01238999702036381</v>
+        <v>0.02000740729272366</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5224380493164062</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5233908295631409</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01707539893686771</v>
+        <v>9.07790195014968e-07</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5196349620819092</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8692059516906738</v>
       </c>
       <c r="W94" t="n">
-        <v>0.00313488463871181</v>
+        <v>0.1221998780965805</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8723504543304443</v>
       </c>
       <c r="W95" t="n">
-        <v>0.09443532675504684</v>
+        <v>0.122502438724041</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5203309059143066</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4009064733982086</v>
       </c>
       <c r="W96" t="n">
-        <v>1.806241562007926e-05</v>
+        <v>0.0142621947452426</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5738000869750977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5217452645301819</v>
       </c>
       <c r="W97" t="n">
-        <v>0.002371455309912562</v>
+        <v>0.002709704451262951</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V98" t="n">
-        <v>0.503772497177124</v>
+        <v>0.4003128707408905</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0002098256372846663</v>
+        <v>0.01391102001070976</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5209400653839111</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8752679228782654</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0002506128221284598</v>
+        <v>0.1255482286214828</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5182459354400635</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8852913975715637</v>
       </c>
       <c r="W100" t="n">
-        <v>0.09968368709087372</v>
+        <v>0.1347223669290543</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5255845785140991</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003358336165547371</v>
+        <v>5.368085840018466e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4032540321350098</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.4009325802326202</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0009817923419177532</v>
+        <v>5.389139005274046e-06</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3974640369415283</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5224376320838928</v>
       </c>
       <c r="W103" t="n">
-        <v>0.03824356570839882</v>
+        <v>0.0156183997169137</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3976988792419434</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8661587834358215</v>
       </c>
       <c r="W104" t="n">
-        <v>0.06531806290149689</v>
+        <v>0.2194546759128571</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4122550487518311</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8700644969940186</v>
       </c>
       <c r="W105" t="n">
-        <v>0.003780734026804566</v>
+        <v>0.209589496254921</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.38944411277771</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4020781219005585</v>
       </c>
       <c r="W106" t="n">
-        <v>0.09585603326559067</v>
+        <v>0.0001596181828062981</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3976330757141113</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.3991027772426605</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0006949048838578165</v>
+        <v>2.160022631869651e-06</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3871769905090332</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5270842909812927</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01069851778447628</v>
+        <v>0.01957405358552933</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3911809921264648</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.869982898235321</v>
       </c>
       <c r="W109" t="n">
-        <v>0.00522748613730073</v>
+        <v>0.2292512655258179</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388538122177124</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8882399797439575</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01366777624934912</v>
+        <v>0.2497019469738007</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3948462009429932</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4002770185470581</v>
       </c>
       <c r="W111" t="n">
-        <v>0.000516224536113441</v>
+        <v>2.949377994809765e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4100580215454102</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4003243148326874</v>
       </c>
       <c r="W112" t="n">
-        <v>0.08615733683109283</v>
+        <v>9.474504622630775e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3895299434661865</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8786095380783081</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0003038290597032756</v>
+        <v>0.2391988486051559</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3925120830535889</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8972669243812561</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001653436222113669</v>
+        <v>0.2547774612903595</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.417625904083252</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.3991569578647614</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001517606084235013</v>
+        <v>0.0003411019861232489</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8757005333900452</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0330921933054924</v>
+        <v>0.2317570447921753</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3931059837341309</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5204896926879883</v>
       </c>
       <c r="W117" t="n">
-        <v>0.3392156064510345</v>
+        <v>0.01622661016881466</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4110760688781738</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5192394256591797</v>
       </c>
       <c r="W118" t="n">
-        <v>4.297181294532493e-05</v>
+        <v>0.01169931143522263</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3908309936523438</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5241444706916809</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001606450299732387</v>
+        <v>0.0177724827080965</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4256229400634766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5230706930160522</v>
       </c>
       <c r="W120" t="n">
-        <v>0.002234481042250991</v>
+        <v>0.009496064856648445</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4440429210662842</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3991948068141937</v>
       </c>
       <c r="W121" t="n">
-        <v>0.06511707603931427</v>
+        <v>0.002011353382840753</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671259880065918</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.400005578994751</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2389038950204849</v>
+        <v>0.2182014733552933</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8887209892272949</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8647711277008057</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2669890224933624</v>
+        <v>0.0005735958693549037</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8680651187896729</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.4003125131130219</v>
       </c>
       <c r="W124" t="n">
-        <v>0.004032028838992119</v>
+        <v>0.2187924981117249</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.924293041229248</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.3997116386890411</v>
       </c>
       <c r="W125" t="n">
-        <v>0.002646190114319324</v>
+        <v>0.2751856744289398</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8812448978424072</v>
       </c>
       <c r="V126" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3991008102893829</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2149081379175186</v>
+        <v>0.2324629276990891</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8682968616485596</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5220173597335815</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1323778480291367</v>
+        <v>0.1199094951152802</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8637440204620361</v>
       </c>
       <c r="V128" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8882379531860352</v>
       </c>
       <c r="W128" t="n">
-        <v>0.0433800220489502</v>
+        <v>0.000599952763877809</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9166011810302734</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.8772154450416565</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1115400716662407</v>
+        <v>0.001551236142404377</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8681149482727051</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5178762674331665</v>
       </c>
       <c r="W130" t="n">
-        <v>0.02852419391274452</v>
+        <v>0.122667133808136</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8701992034912109</v>
       </c>
       <c r="V131" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3991898894309998</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2047977447509766</v>
+        <v>0.2218497693538666</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8728101253509521</v>
       </c>
       <c r="V132" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3991921246051788</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01048213616013527</v>
+        <v>0.2243140041828156</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9349958896636963</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.3999824523925781</v>
       </c>
       <c r="W133" t="n">
-        <v>0.01716427505016327</v>
+        <v>0.2862393856048584</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8658528327941895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.3991937339305878</v>
       </c>
       <c r="W134" t="n">
-        <v>0.08044195920228958</v>
+        <v>0.2177707105875015</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8889091014862061</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.8717164397239685</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2682148516178131</v>
+        <v>0.0002955876116175205</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8659360408782959</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8715534210205078</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2440821826457977</v>
+        <v>3.155495869577862e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9085118770599365</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8688917756080627</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1637826561927795</v>
+        <v>0.001569752465002239</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8685460090637207</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5224235653877258</v>
       </c>
       <c r="W138" t="n">
-        <v>0.004634684417396784</v>
+        <v>0.1198007464408875</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8666300773620605</v>
       </c>
       <c r="V139" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5224975347518921</v>
       </c>
       <c r="W139" t="n">
-        <v>0.01178341545164585</v>
+        <v>0.1184272095561028</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8716700077056885</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5209665298461914</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03435789421200752</v>
+        <v>0.1229929327964783</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8764889240264893</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.3992767930030823</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04994991049170494</v>
+        <v>0.2277314215898514</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5386559963226318</v>
       </c>
       <c r="V142" t="n">
-        <v>0.524641752243042</v>
+        <v>0.3998300731182098</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0001963990362128243</v>
+        <v>0.01927263662219048</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5247409343719482</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8615384101867676</v>
       </c>
       <c r="W143" t="n">
-        <v>0.001153632765635848</v>
+        <v>0.1134325414896011</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5225751399993896</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5225480198860168</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02894481085240841</v>
+        <v>7.355005493536737e-10</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5220029354095459</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8756880164146423</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0306132398545742</v>
+        <v>0.1250931322574615</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5225028991699219</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5233734846115112</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01681035757064819</v>
+        <v>7.579189968964783e-07</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5472099781036377</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4002964198589325</v>
       </c>
       <c r="W147" t="n">
-        <v>0.02843621931970119</v>
+        <v>0.02158359438180923</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197908878326416</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.4003753960132599</v>
       </c>
       <c r="W148" t="n">
-        <v>2.300989035575185e-05</v>
+        <v>0.014260059222579</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5209581851959229</v>
       </c>
       <c r="V149" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.4003092050552368</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02214929461479187</v>
+        <v>0.01455617602914572</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5238840579986572</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3992594182491302</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02132006362080574</v>
+        <v>0.01553130056709051</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5739820003509521</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8676682114601135</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01212372351437807</v>
+        <v>0.08625159412622452</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5397231578826904</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5206932425498962</v>
       </c>
       <c r="W152" t="n">
-        <v>0.03713006153702736</v>
+        <v>0.0003621376818045974</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5232088565826416</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.399730384349823</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01114736311137676</v>
+        <v>0.01524693332612514</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157310962677002</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5227866172790527</v>
       </c>
       <c r="W154" t="n">
-        <v>0.009622874669730663</v>
+        <v>4.978037759428844e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5568740367889404</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4003566801548004</v>
       </c>
       <c r="W155" t="n">
-        <v>0.009166921488940716</v>
+        <v>0.02449768222868443</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5757579803466797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.881156325340271</v>
       </c>
       <c r="W156" t="n">
-        <v>0.04162419587373734</v>
+        <v>0.09326814860105515</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5227727890014648</v>
       </c>
       <c r="V157" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.520405650138855</v>
       </c>
       <c r="W157" t="n">
-        <v>0.2050251662731171</v>
+        <v>5.603346380667062e-06</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5240509510040283</v>
       </c>
       <c r="V158" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4003045856952667</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01697423495352268</v>
+        <v>0.01531316246837378</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5239291191101074</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5290318727493286</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0003699170192703605</v>
+        <v>2.60380948020611e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5254712104797363</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8809124827384949</v>
       </c>
       <c r="W160" t="n">
-        <v>0.03018911927938461</v>
+        <v>0.1263384968042374</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5345959663391113</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.862709105014801</v>
       </c>
       <c r="W161" t="n">
-        <v>0.004275952465832233</v>
+        <v>0.1076582297682762</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3972549438476562</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5273370146751404</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1905061900615692</v>
+        <v>0.01692134514451027</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3993558883666992</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.3991768658161163</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0003342924173921347</v>
+        <v>3.204907272902346e-08</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915700912475586</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8582423329353333</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0052255904302001</v>
+        <v>0.2177829742431641</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3959598541259766</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8725588917732239</v>
       </c>
       <c r="W165" t="n">
-        <v>0.03252808004617691</v>
+        <v>0.22714664041996</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3907840251922607</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4009081721305847</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06893543899059296</v>
+        <v>0.0001024983503157273</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.397007942199707</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5152154564857483</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03214225172996521</v>
+        <v>0.01397301629185677</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3916471004486084</v>
       </c>
       <c r="V168" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5169853568077087</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1668041944503784</v>
+        <v>0.01570967771112919</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3939988613128662</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8893581032752991</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001870801788754761</v>
+        <v>0.245380774140358</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3940389156341553</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8881462216377258</v>
       </c>
       <c r="W170" t="n">
-        <v>0.009345279075205326</v>
+        <v>0.2441420257091522</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923470973968506</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8824823498725891</v>
       </c>
       <c r="W171" t="n">
-        <v>0.009691107086837292</v>
+        <v>0.2402325719594955</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3923449516296387</v>
       </c>
       <c r="V172" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4004017114639282</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06819847971200943</v>
+        <v>6.491137901321054e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3955531120300293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8608986139297485</v>
       </c>
       <c r="W173" t="n">
-        <v>0.002006678143516183</v>
+        <v>0.216546431183815</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4331440925598145</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.3991917967796326</v>
       </c>
       <c r="W174" t="n">
-        <v>0.003331330604851246</v>
+        <v>0.001152758370153606</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3962390422821045</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8867415189743042</v>
       </c>
       <c r="W175" t="n">
-        <v>0.08412455767393112</v>
+        <v>0.2405926734209061</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3955960273742676</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.4023066163063049</v>
       </c>
       <c r="W176" t="n">
-        <v>0.004344770219177008</v>
+        <v>4.503200398175977e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.396122932434082</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8740831613540649</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002058575861155987</v>
+        <v>0.22844597697258</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3964598178863525</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8667076826095581</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0004480713396333158</v>
+        <v>0.2211330533027649</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940629959106445</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5207931995391846</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002502854913473129</v>
+        <v>0.01606054417788982</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4558289051055908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8874258995056152</v>
       </c>
       <c r="W180" t="n">
-        <v>0.001470063230954111</v>
+        <v>0.1862759590148926</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4228651523590088</v>
       </c>
       <c r="V181" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5278010368347168</v>
       </c>
       <c r="W181" t="n">
-        <v>0.3050889372825623</v>
+        <v>0.01101153995841742</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8833620548248291</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5005330443382263</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2168958932161331</v>
+        <v>0.1465580463409424</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8755478858947754</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.3998976647853851</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04894209280610085</v>
+        <v>0.2262431383132935</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9169979095458984</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.4020487368106842</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2005266845226288</v>
+        <v>0.2651726901531219</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V185" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.3991781771183014</v>
       </c>
       <c r="W185" t="n">
-        <v>0.006960941478610039</v>
+        <v>0.2360422909259796</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8756339550018311</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3998278081417084</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2097710520029068</v>
+        <v>0.2263914942741394</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8836569786071777</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.3991906344890594</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2617900669574738</v>
+        <v>0.2347076386213303</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9283440113067627</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8726466298103333</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1162845119833946</v>
+        <v>0.003102198243141174</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8767180442810059</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8725356459617615</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2373223602771759</v>
+        <v>1.749245529936161e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8711369037628174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5247711539268494</v>
       </c>
       <c r="W190" t="n">
-        <v>0.01092152018100023</v>
+        <v>0.1199692338705063</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8779048919677734</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5224015712738037</v>
       </c>
       <c r="W191" t="n">
-        <v>0.09100091457366943</v>
+        <v>0.1263826042413712</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.919517993927002</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.52671217918396</v>
       </c>
       <c r="W192" t="n">
-        <v>0.3234927952289581</v>
+        <v>0.154296413064003</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8804140090942383</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8769915699958801</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1263399869203568</v>
+        <v>1.171308940683957e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8698029518127441</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3991223871707916</v>
       </c>
       <c r="W194" t="n">
-        <v>0.02909053117036819</v>
+        <v>0.2215401977300644</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719689846038818</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5178478360176086</v>
       </c>
       <c r="W195" t="n">
-        <v>0.04772397503256798</v>
+        <v>0.1254017949104309</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.917996883392334</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5187731981277466</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1721670925617218</v>
+        <v>0.1593795567750931</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8720180988311768</v>
       </c>
       <c r="V197" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5250076651573181</v>
       </c>
       <c r="W197" t="n">
-        <v>0.02687667869031429</v>
+        <v>0.1204162389039993</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8734560012817383</v>
       </c>
       <c r="V198" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8644776940345764</v>
       </c>
       <c r="W198" t="n">
-        <v>0.02735036797821522</v>
+        <v>8.060999971348792e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8730437755584717</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8730162978172302</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2727992236614227</v>
+        <v>7.550262637323613e-10</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9236700534820557</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5227946639060974</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2114818245172501</v>
+        <v>0.1607010811567307</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8841438293457031</v>
       </c>
       <c r="V201" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.3991987407207489</v>
       </c>
       <c r="W201" t="n">
-        <v>0.008448128588497639</v>
+        <v>0.2351717352867126</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5266070365905762</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5094442963600159</v>
       </c>
       <c r="W202" t="n">
-        <v>0.004639758262783289</v>
+        <v>0.0002945596643257886</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5214660167694092</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5242722630500793</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0009638709598220885</v>
+        <v>7.875018127379008e-06</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5417530536651611</v>
       </c>
       <c r="V204" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5140094757080078</v>
       </c>
       <c r="W204" t="n">
-        <v>0.06790833920240402</v>
+        <v>0.0007697060937061906</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5228371620178223</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8895129561424255</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01702988147735596</v>
+        <v>0.1344511359930038</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5441110134124756</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8879507184028625</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03738271817564964</v>
+        <v>0.1182257458567619</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5244998931884766</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.4020538330078125</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01660990715026855</v>
+        <v>0.01499303802847862</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5188829898834229</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.4023264348506927</v>
       </c>
       <c r="W208" t="n">
-        <v>3.056310015381314e-05</v>
+        <v>0.01358543056994677</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5189719200134277</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5675371289253235</v>
       </c>
       <c r="W209" t="n">
-        <v>3.50554910255596e-05</v>
+        <v>0.00235857954248786</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5803229808807373</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.3991197645664215</v>
       </c>
       <c r="W210" t="n">
-        <v>0.005658790934830904</v>
+        <v>0.03283460438251495</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.535944938659668</v>
       </c>
       <c r="V211" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8734089136123657</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01383603271096945</v>
+        <v>0.1138819307088852</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5287878513336182</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.4009978771209717</v>
       </c>
       <c r="W212" t="n">
-        <v>0.07476343959569931</v>
+        <v>0.01633027754724026</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.52211594581604</v>
       </c>
       <c r="V213" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.4009012579917908</v>
       </c>
       <c r="W213" t="n">
-        <v>0.2056724429130554</v>
+        <v>0.01469300035387278</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.526771068572998</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8676889538764954</v>
       </c>
       <c r="W214" t="n">
-        <v>0.03097428008913994</v>
+        <v>0.116225004196167</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5894331932067871</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.3991667628288269</v>
       </c>
       <c r="W215" t="n">
-        <v>0.007248066831380129</v>
+        <v>0.03620131313800812</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5496680736541748</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.3999086916446686</v>
       </c>
       <c r="W216" t="n">
-        <v>0.000549716001842171</v>
+        <v>0.02242787182331085</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5268151760101318</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.3998923301696777</v>
       </c>
       <c r="W217" t="n">
-        <v>0.004607634153217077</v>
+        <v>0.01610940881073475</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5363750457763672</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.3998313248157501</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01381563767790794</v>
+        <v>0.01864418759942055</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5629749298095703</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5174325108528137</v>
       </c>
       <c r="W219" t="n">
-        <v>0.05840476974844933</v>
+        <v>0.002074111951515079</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5319931507110596</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8688297867774963</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01484154351055622</v>
+        <v>0.1134589165449142</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5279269218444824</v>
       </c>
       <c r="V221" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8788151741027832</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02438182197511196</v>
+        <v>0.1231225654482841</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.397244930267334</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.3997319936752319</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0116327702999115</v>
+        <v>6.185484380694106e-06</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3915078639984131</v>
       </c>
       <c r="V223" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8748446702957153</v>
       </c>
       <c r="W223" t="n">
-        <v>0.1002422198653221</v>
+        <v>0.2336144745349884</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939077854156494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.522508978843689</v>
       </c>
       <c r="W224" t="n">
-        <v>0.08936212956905365</v>
+        <v>0.01653826609253883</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3916800022125244</v>
       </c>
       <c r="V225" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5061873197555542</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1670846492052078</v>
+        <v>0.01311192568391562</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4328830242156982</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8756727576255798</v>
       </c>
       <c r="W226" t="n">
-        <v>0.008608879521489143</v>
+        <v>0.1960627436637878</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3996849060058594</v>
       </c>
       <c r="V227" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3999941349029541</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01118286605924368</v>
+        <v>9.562251079842099e-08</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4040250778198242</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.400637298822403</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01483026146888733</v>
+        <v>1.147704642789904e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4079239368438721</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.400360494852066</v>
       </c>
       <c r="W229" t="n">
-        <v>0.02831707708537579</v>
+        <v>5.720565604860894e-05</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933310508728027</v>
       </c>
       <c r="V230" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5269141793251038</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001813841401599348</v>
+        <v>0.01784445159137249</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3949780464172363</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8693296313285828</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01215251162648201</v>
+        <v>0.2250094264745712</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4021458625793457</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.3991930186748505</v>
       </c>
       <c r="W232" t="n">
-        <v>0.003804093925282359</v>
+        <v>8.719287507119589e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998990058898926</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4003301560878754</v>
       </c>
       <c r="W233" t="n">
-        <v>0.0003150972479488701</v>
+        <v>1.858904994378463e-07</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.405724048614502</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5173762440681458</v>
       </c>
       <c r="W234" t="n">
-        <v>0.009581428952515125</v>
+        <v>0.01246621273458004</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.39997798204422</v>
       </c>
       <c r="W235" t="n">
-        <v>0.03743516281247139</v>
+        <v>6.682193088636268e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.39900803565979</v>
       </c>
       <c r="V236" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5284284949302673</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0003467826172709465</v>
+        <v>0.01674965582787991</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923060894012451</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5226227641105652</v>
       </c>
       <c r="W237" t="n">
-        <v>0.005067226942628622</v>
+        <v>0.01698243618011475</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889281749725342</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.3997121751308441</v>
       </c>
       <c r="W238" t="n">
-        <v>0.2047785669565201</v>
+        <v>0.0001162946573458612</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3951809406280518</v>
       </c>
       <c r="V239" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8685007095336914</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1676537394523621</v>
+        <v>0.2240315973758698</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.39736008644104</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5224482417106628</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1624623239040375</v>
+        <v>0.0156470462679863</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951489925384521</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5224437713623047</v>
       </c>
       <c r="W241" t="n">
-        <v>0.08861950039863586</v>
+        <v>0.01620396040380001</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8929769992828369</v>
       </c>
       <c r="V242" t="n">
-        <v>0.490833193063736</v>
+        <v>0.3991840779781342</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1617196351289749</v>
+        <v>0.24383145570755</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8785910606384277</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.8751140236854553</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1720314919948578</v>
+        <v>1.208978574140929e-05</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.879249095916748</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.4019704759120941</v>
       </c>
       <c r="W244" t="n">
-        <v>0.00203991518355906</v>
+        <v>0.227794885635376</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8834140300750732</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5221070647239685</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05272295325994492</v>
+        <v>0.1305427253246307</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.875234842300415</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4003277719020844</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08940497040748596</v>
+        <v>0.2255367189645767</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9250237941741943</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4019892811775208</v>
       </c>
       <c r="W247" t="n">
-        <v>0.3287214338779449</v>
+        <v>0.2735651135444641</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8970799446105957</v>
       </c>
       <c r="V248" t="n">
-        <v>0.576347291469574</v>
+        <v>0.888230562210083</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1028694361448288</v>
+        <v>7.831156835891306e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.882411003112793</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8814613223075867</v>
       </c>
       <c r="W249" t="n">
-        <v>0.05268362537026405</v>
+        <v>9.018936566462799e-07</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8718051910400391</v>
       </c>
       <c r="V250" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8674852848052979</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2062728106975555</v>
+        <v>1.866159072960727e-05</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>1.004710912704468</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.3991690576076508</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2639518678188324</v>
+        <v>0.3666808903217316</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>1.061408042907715</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5268056392669678</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1657304763793945</v>
+        <v>0.2857997417449951</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8926548957824707</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5257483124732971</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2936707735061646</v>
+        <v>0.1346204429864883</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8992478847503662</v>
       </c>
       <c r="V254" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4019314348697662</v>
       </c>
       <c r="W254" t="n">
-        <v>0.005903064273297787</v>
+        <v>0.2473236471414566</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9490199089050293</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8898105025291443</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1284259408712387</v>
+        <v>0.003505753818899393</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8883821964263916</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8684543371200562</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1805320978164673</v>
+        <v>0.0003971195837948471</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8981759548187256</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4020706415176392</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1546468138694763</v>
+        <v>0.2461204826831818</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8828940391540527</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5241357684135437</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1271368116140366</v>
+        <v>0.1287074983119965</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9129691123962402</v>
       </c>
       <c r="V259" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5208902359008789</v>
       </c>
       <c r="W259" t="n">
-        <v>0.003940882161259651</v>
+        <v>0.1537258476018906</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8786218166351318</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.399150162935257</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1396690756082535</v>
+        <v>0.2298930734395981</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8955340385437012</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5281946063041687</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1641191393136978</v>
+        <v>0.1349382549524307</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5531089305877686</v>
       </c>
       <c r="V262" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8734011054039001</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001408112118951976</v>
+        <v>0.1025870740413666</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.6277599334716797</v>
       </c>
       <c r="V263" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5171506404876709</v>
       </c>
       <c r="W263" t="n">
-        <v>0.1207222193479538</v>
+        <v>0.01223441585898399</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5312418937683105</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8671928644180298</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01290673762559891</v>
+        <v>0.1128630563616753</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5316398143768311</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.3999989628791809</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0028634297195822</v>
+        <v>0.01732931286096573</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5339949131011963</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5675968527793884</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02621075510978699</v>
+        <v>0.001129090320318937</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5337541103363037</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8688645958900452</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004889590200036764</v>
+        <v>0.1122990399599075</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5894861221313477</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8750054240226746</v>
       </c>
       <c r="W268" t="n">
-        <v>0.06207844242453575</v>
+        <v>0.08152127265930176</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.547321081161499</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8889732360839844</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01681199669837952</v>
+        <v>0.1167261973023415</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.535912036895752</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5205240249633789</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0001237383985426277</v>
+        <v>0.0002367909182794392</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.526371955871582</v>
       </c>
       <c r="V271" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.874315083026886</v>
       </c>
       <c r="W271" t="n">
-        <v>0.2018003761768341</v>
+        <v>0.1210644170641899</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5662498474121094</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5225762128829956</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0568716749548912</v>
+        <v>0.001907386351376772</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5730569362640381</v>
       </c>
       <c r="V273" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8719276189804077</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01827529072761536</v>
+        <v>0.08932368457317352</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5378789901733398</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8680845499038696</v>
       </c>
       <c r="W274" t="n">
-        <v>0.03501357883214951</v>
+        <v>0.1090357080101967</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5280790328979492</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8772031664848328</v>
       </c>
       <c r="W275" t="n">
-        <v>1.07032337837154e-05</v>
+        <v>0.1218876615166664</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5299570560455322</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4003720283508301</v>
       </c>
       <c r="W276" t="n">
-        <v>2.644602136570029e-05</v>
+        <v>0.01679227873682976</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5287628173828125</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8843016028404236</v>
       </c>
       <c r="W277" t="n">
-        <v>0.001438645063899457</v>
+        <v>0.1264078319072723</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5232656598091125</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01206946931779385</v>
+        <v>1.710079413896892e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5237306356430054</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0156097300350666</v>
+        <v>3.12090378429275e-05</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5236248970031738</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4001191556453705</v>
       </c>
       <c r="W280" t="n">
-        <v>0.2042604237794876</v>
+        <v>0.01525366771966219</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5271949768066406</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.40028116106987</v>
       </c>
       <c r="W281" t="n">
-        <v>0.00358767993748188</v>
+        <v>0.01610711589455605</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4166510105133057</v>
       </c>
       <c r="V282" t="n">
-        <v>0.838257908821106</v>
+        <v>0.5097559690475464</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1777523756027222</v>
+        <v>0.008668533526360989</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4005398750305176</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5032861828804016</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06379219144582748</v>
+        <v>0.01055680401623249</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.450901985168457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.400292843580246</v>
       </c>
       <c r="W284" t="n">
-        <v>0.001105544972233474</v>
+        <v>0.00256128516048193</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4034860134124756</v>
       </c>
       <c r="V285" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8831190466880798</v>
       </c>
       <c r="W285" t="n">
-        <v>3.980846486228984e-06</v>
+        <v>0.2300478518009186</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009947776794434</v>
       </c>
       <c r="V286" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4003134369850159</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1611402183771133</v>
+        <v>4.642251383302209e-07</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992629051208496</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8671594262123108</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1622184216976166</v>
+        <v>0.2189271599054337</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4006428718566895</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5280755162239075</v>
       </c>
       <c r="W288" t="n">
-        <v>0.002489373087882996</v>
+        <v>0.01623907871544361</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4134471416473389</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5664380788803101</v>
       </c>
       <c r="W289" t="n">
-        <v>1.684223207121249e-05</v>
+        <v>0.02340622618794441</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4300417900085449</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4002838432788849</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0009907567873597145</v>
+        <v>0.0008855353808030486</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4008779525756836</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8724520802497864</v>
       </c>
       <c r="W291" t="n">
-        <v>0.007911176420748234</v>
+        <v>0.2223821580410004</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400914192199707</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.3999950289726257</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01074437983334064</v>
+        <v>8.448610628875031e-07</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4005739688873291</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5310975313186646</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0153284864500165</v>
+        <v>0.01703640073537827</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3969550132751465</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8832583427429199</v>
       </c>
       <c r="W294" t="n">
-        <v>0.06588738411664963</v>
+        <v>0.236490935087204</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3991965651512146</v>
       </c>
       <c r="W295" t="n">
-        <v>0.08758541196584702</v>
+        <v>5.990479166939622e-06</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970170021057129</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5227815508842468</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01168691087514162</v>
+        <v>0.01581672206521034</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.400076150894165</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3999032378196716</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0003081549366470426</v>
+        <v>2.989893133076293e-08</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3999190330505371</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.4001418948173523</v>
       </c>
       <c r="W298" t="n">
-        <v>0.008232064545154572</v>
+        <v>4.966736710798614e-08</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4065620899200439</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4003980159759521</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0001199214093503542</v>
+        <v>3.799580736085773e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4043889045715332</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.528103768825531</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1847255080938339</v>
+        <v>0.01530536729842424</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.400001049041748</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8648747801780701</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0004685825551860034</v>
+        <v>0.2161075919866562</v>
       </c>
     </row>
     <row r="302" spans="1:23">
